--- a/xlsx/农业_intext.xlsx
+++ b/xlsx/农业_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>农业</t>
   </si>
@@ -26,16 +26,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_农业</t>
+    <t>政策_政策_美国_农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>農學</t>
+    <t>农学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%8F%B2</t>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%AA%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>酪農業</t>
+    <t>酪农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dryland</t>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%97%E6%94%BE%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>粗放農業</t>
+    <t>粗放农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_range</t>
@@ -101,19 +98,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E7%B4%84%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>集約農業</t>
+    <t>集约农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%BE%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>自然農法</t>
+    <t>自然农法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>有機農業</t>
+    <t>有机农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E7%94%9F%E4%BA%A7%E5%AD%A6</t>
@@ -131,13 +128,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E8%8F%9C%E5%85%B1%E7%94%9F</t>
   </si>
   <si>
-    <t>魚菜共生</t>
+    <t>鱼菜共生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9</t>
@@ -149,25 +146,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%9C%92</t>
   </si>
   <si>
-    <t>果園</t>
+    <t>果园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%A0%B4</t>
   </si>
   <si>
-    <t>牧場</t>
+    <t>牧场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%83%E8%BE%B2</t>
   </si>
   <si>
-    <t>佃農</t>
+    <t>佃农</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E8%80%95%E7%81%AB%E7%A8%AE</t>
   </si>
   <si>
-    <t>刀耕火種</t>
+    <t>刀耕火种</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stock-free_agriculture</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>都市農業</t>
+    <t>都市农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Agribusiness</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>生態農業</t>
+    <t>生态农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%BE%B2%E6%9E%97%E6%A5%AD</t>
   </si>
   <si>
-    <t>混農林業</t>
+    <t>混农林业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%89%A7%E4%B8%9A</t>
@@ -221,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%BF%E7%BE%8A</t>
   </si>
   <si>
-    <t>綿羊</t>
+    <t>绵羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%95%9C</t>
@@ -245,19 +242,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%89%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>畜牧學</t>
+    <t>畜牧学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%BE%B2%E6%A5%AD%E5%92%8C%E8%BE%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-農業和農學</t>
+    <t>Template talk-农业和农学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%97%E5%8E%9F%E5%B8%82</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%A4%8D%E6%A5%AD</t>
   </si>
   <si>
-    <t>種植業</t>
+    <t>种植业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>漁業</t>
+    <t>渔业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>藥物</t>
+    <t>药物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E7%94%9F%E4%BA%A7</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%B4%E9%A4%8A</t>
   </si>
   <si>
-    <t>馴養</t>
+    <t>驯养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E7%A7%91%E5%AD%A6</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -395,31 +392,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E4%BD%9C%E7%89%A9</t>
   </si>
   <si>
-    <t>單一作物</t>
+    <t>单一作物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>可持續農業</t>
+    <t>可持续农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
+    <t>自然资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%96%92</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E6%96%87%E8%A7%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>說文解字</t>
+    <t>说文解字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%86%99%E5%AD%97%E5%85%B8</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9C%88%E6%B2%83%E5%9C%9F</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%B5%AB%E5%8B%92</t>
   </si>
   <si>
-    <t>薩赫勒</t>
+    <t>萨赫勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>新幾內亞</t>
+    <t>新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%9C%9D</t>
@@ -473,37 +470,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%B0%91%E8%A6%81%E8%A1%93</t>
   </si>
   <si>
-    <t>齊民要術</t>
+    <t>齐民要术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D</t>
   </si>
   <si>
-    <t>園藝</t>
+    <t>园艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E9%86%AB</t>
   </si>
   <si>
-    <t>獸醫</t>
+    <t>兽医</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%B9%E9%A3%AA</t>
   </si>
   <si>
-    <t>烹飪</t>
+    <t>烹饪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>農業社會</t>
+    <t>农业社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E4%BD%9C</t>
   </si>
   <si>
-    <t>輪作</t>
+    <t>轮作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E8%82%A5</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>農業補貼</t>
+    <t>农业补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>機器人</t>
+    <t>机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E6%BA%AB</t>
   </si>
   <si>
-    <t>氣溫</t>
+    <t>气温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4</t>
@@ -599,19 +596,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>市場</t>
+    <t>市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0</t>
@@ -629,19 +626,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生態系統</t>
+    <t>生态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>農產品</t>
+    <t>农产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%B2%AE%E5%86%9C%E7%BB%84%E7%BB%87</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%8A%E8%8E%96</t>
   </si>
   <si>
-    <t>塊莖</t>
+    <t>块茎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3</t>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E4%BE%B5%E8%9D%95</t>
   </si>
   <si>
-    <t>土壤侵蝕</t>
+    <t>土壤侵蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E7%A0%8D%E4%BC%90</t>
@@ -845,15 +842,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E9%B9%BD%E5%8C%96</t>
   </si>
   <si>
-    <t>土壤鹽化</t>
+    <t>土壤盐化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%A4%8D%E4%B8%9A</t>
   </si>
   <si>
-    <t>种植业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
@@ -863,13 +857,13 @@
     <t>https://ja.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-混合農業</t>
+    <t>ja-混合农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%B5%A6%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>自給農業</t>
+    <t>自给农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E5%86%9C%E4%B8%9A</t>
@@ -881,9 +875,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%97%E6%94%BE%E5%86%9C%E4%B8%9A</t>
   </si>
   <si>
-    <t>粗放农业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%80%95%E7%BB%86%E4%BD%9C</t>
   </si>
   <si>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E5%B7%A5%E7%A8%8B</t>
@@ -911,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%96%92%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>休閒農業</t>
+    <t>休閒农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
@@ -935,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%A0%BD%E5%9F%B9%E6%A5%AD</t>
   </si>
   <si>
-    <t>熱帶栽培業</t>
+    <t>热带栽培业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E7%A8%AE%E6%A4%8D%E6%A5%AD</t>
   </si>
   <si>
-    <t>穀物種植業</t>
+    <t>谷物种植业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E6%9D%9C%E8%83%BD</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟人</t>
+    <t>经济人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -965,33 +956,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>線性</t>
+    <t>线性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
   </si>
   <si>
-    <t>農民</t>
+    <t>农民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>農學家</t>
+    <t>农学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E5%AD%A6</t>
   </si>
   <si>
-    <t>农学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%9D%91</t>
   </si>
   <si>
@@ -1001,9 +989,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%B0%91</t>
   </si>
   <si>
-    <t>农民</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E7%A8%8E</t>
   </si>
   <si>
@@ -1013,9 +998,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E8%A1%A5%E8%B4%B4</t>
   </si>
   <si>
-    <t>农业补贴</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E6%9C%BA%E6%A2%B0</t>
   </si>
   <si>
@@ -1055,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>農業革命</t>
+    <t>农业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%92%8C%E7%94%9F%E7%89%A9%E5%8A%A0%E5%B7%A5%E6%8A%80%E6%9C%AF</t>
@@ -1121,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%BE%B2%E8%97%A5</t>
   </si>
   <si>
-    <t>生物農藥</t>
+    <t>生物农药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E8%82%A5</t>
@@ -1187,43 +1169,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%94%A2%E8%97%A5</t>
   </si>
   <si>
-    <t>生物產藥</t>
+    <t>生物产药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E7%9B%B4%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>垂直農場</t>
+    <t>垂直农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%BE%B2%E6%A5%AD%E7%94%A2%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國農業產值列表</t>
+    <t>各国农业产值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PanSci_%E6%B3%9B%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>PanSci 泛科學</t>
+    <t>PanSci 泛科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%9C%E5%90%88%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>en-農業綜合企業</t>
+    <t>en-农业综合企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9E%97%E6%A5%AD</t>
   </si>
   <si>
-    <t>農林業</t>
+    <t>农林业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Factory_farming</t>
@@ -1235,25 +1217,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>農場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%9B%9E</t>
   </si>
   <si>
-    <t>土雞</t>
+    <t>土鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業化農業</t>
+    <t>工业化农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%9E%8B%E7%8F%BE%E4%BB%A3%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>都市型現代農業</t>
+    <t>都市型现代农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_agricultural_universities_and_colleges</t>
@@ -1277,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%8A%E8%B1%AC%E6%A5%AD</t>
   </si>
   <si>
-    <t>養豬業</t>
+    <t>养猪业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sheep_husbandry</t>
@@ -1289,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D%E5%AD%B8</t>
   </si>
   <si>
-    <t>園藝學</t>
+    <t>园艺学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_gardening</t>
@@ -1301,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E6%9E%97%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>園林設計</t>
+    <t>园林设计</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Computer-aided_garden_design</t>
@@ -1313,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E6%9E%97%E5%B7%A5%E5%85%B7</t>
   </si>
   <si>
-    <t>園林工具</t>
+    <t>园林工具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%A4%8D%E7%94%9F%E7%89%86</t>
   </si>
   <si>
-    <t>綠色植生牆</t>
+    <t>绿色植生墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA%E5%86%9C%E5%9C%83</t>
@@ -1331,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4</t>
   </si>
   <si>
-    <t>溫室</t>
+    <t>温室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_gardening</t>
@@ -1361,13 +1340,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%9C%92%E8%97%9D</t>
   </si>
   <si>
-    <t>社區園藝</t>
+    <t>社区园艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E5%9C%92%E8%97%9D</t>
   </si>
   <si>
-    <t>森林園藝</t>
+    <t>森林园艺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/French_intensive_gardening</t>
@@ -1403,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>省水花園</t>
+    <t>省水花园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_garden_types</t>
@@ -1415,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AD%E5%9C%92</t>
   </si>
   <si>
-    <t>庭園</t>
+    <t>庭园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Front_yard</t>
@@ -1433,25 +1412,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%99%A2</t>
   </si>
   <si>
-    <t>後院</t>
+    <t>后院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E8%8F%9C%E5%9C%92</t>
   </si>
   <si>
-    <t>家庭菜園</t>
+    <t>家庭菜园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E5%9C%92</t>
   </si>
   <si>
-    <t>葡萄園</t>
+    <t>葡萄园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>植物園</t>
+    <t>植物园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fernery</t>
@@ -1475,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%9F%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>水生花園</t>
+    <t>水生花园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wildlife_garden</t>
@@ -1511,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>動物園</t>
+    <t>动物园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Butterfly_zoo</t>
@@ -1535,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E9%A0%82%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>屋頂花園</t>
+    <t>屋顶花园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rain_garden</t>
@@ -1595,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E8%B7%AF%E5%9C%92</t>
   </si>
   <si>
-    <t>迷路園</t>
+    <t>迷路园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biblical_garden</t>
@@ -1685,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%90%8D%E5%9C%92</t>
   </si>
   <si>
-    <t>台灣名園</t>
+    <t>台湾名园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_garden</t>
@@ -1721,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BA%AD%E5%9C%92</t>
   </si>
   <si>
-    <t>英國庭園</t>
+    <t>英国庭园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_Renaissance_garden</t>
@@ -1781,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%BA%AD%E5%9C%92</t>
   </si>
   <si>
-    <t>伊斯蘭庭園</t>
+    <t>伊斯兰庭园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mughal_gardens</t>
@@ -1859,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物學</t>
+    <t>植物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plant_breeding</t>
@@ -1877,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E8%97%9D</t>
   </si>
   <si>
-    <t>樹藝</t>
+    <t>树艺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Horticultural_flora</t>
@@ -1913,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E6%A0%BD%E5%9F%B9</t>
@@ -1931,13 +1910,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E5%9C%92%E8%97%9D%E5%AD%B8</t>
   </si>
   <si>
-    <t>有機園藝學</t>
+    <t>有机园艺学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8B%95%E5%8A%9B%E8%BE%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>生物動力農法</t>
+    <t>生物动力农法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_organic_gardening_and_farming_topics</t>
@@ -1985,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A4%E8%8D%89%E5%8A%91</t>
   </si>
   <si>
-    <t>除草劑</t>
+    <t>除草剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -1997,13 +1976,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>重工業</t>
+    <t>重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>輕工業</t>
+    <t>轻工业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aerospace_manufacturer</t>
@@ -2051,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>咖啡經濟學</t>
+    <t>咖啡经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alcohol_industry</t>
@@ -2069,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>國防工業</t>
+    <t>国防工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>汽車產業</t>
+    <t>汽车产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%8C%E8%BD%A6%E5%B7%A5%E4%B8%9A</t>
@@ -2099,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>資訊業</t>
+    <t>资讯业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E6%96%BD%E5%B7%A5</t>
@@ -2123,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>創意產業</t>
+    <t>创意产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -2165,13 +2144,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%97%9D%E7%95%8C</t>
   </si>
   <si>
-    <t>演藝界</t>
+    <t>演艺界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E8%A3%9D</t>
   </si>
   <si>
-    <t>時裝</t>
+    <t>时装</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Film_industry</t>
@@ -2183,21 +2162,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>水產業</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/History_of_the_bushfood_industry</t>
   </si>
   <si>
@@ -2207,13 +2183,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%8D%89%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>皮草貿易</t>
+    <t>皮草贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%A0%B4</t>
   </si>
   <si>
-    <t>賭場</t>
+    <t>赌场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Online_gambling</t>
@@ -2285,7 +2261,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>音樂產業</t>
+    <t>音乐产业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Naval_stores_industry</t>
@@ -2309,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>石油產業</t>
+    <t>石油产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A1%B5%E5%B2%A9%E5%B7%A5%E4%B8%9A</t>
@@ -2345,7 +2321,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E7%B4%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>造紙業</t>
+    <t>造纸业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_industry</t>
@@ -2357,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8B%95%E7%94%A2</t>
   </si>
   <si>
-    <t>不動產</t>
+    <t>不动产</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Housing_industry</t>
@@ -2381,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>色情產業</t>
+    <t>色情产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E8%88%B9</t>
@@ -2423,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>水利產業</t>
+    <t>水利产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E4%B8%9A</t>
@@ -2435,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2459,13 +2435,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2871,13 +2847,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -2897,16 +2873,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -2926,16 +2902,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -2955,16 +2931,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -2984,16 +2960,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -3013,16 +2989,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -3042,16 +3018,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -3071,16 +3047,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -3100,16 +3076,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -3129,16 +3105,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -3158,16 +3134,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -3187,16 +3163,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -3216,16 +3192,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -3245,16 +3221,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -3274,16 +3250,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -3303,16 +3279,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -3332,16 +3308,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -3361,16 +3337,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -3390,16 +3366,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -3419,16 +3395,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -3448,16 +3424,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -3477,16 +3453,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -3506,16 +3482,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -3535,16 +3511,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -3564,16 +3540,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -3593,16 +3569,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -3622,16 +3598,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -3651,16 +3627,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -3680,16 +3656,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -3709,16 +3685,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -3738,16 +3714,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -3767,16 +3743,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -3796,16 +3772,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -3825,16 +3801,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3854,16 +3830,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="n">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3883,16 +3859,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -3912,16 +3888,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
       <c r="G38" t="n">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3941,16 +3917,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3970,16 +3946,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3999,16 +3975,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>82</v>
-      </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -4028,16 +4004,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -4057,16 +4033,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -4086,16 +4062,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -4115,16 +4091,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -4144,16 +4120,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -4173,16 +4149,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -4202,16 +4178,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -4231,16 +4207,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -4260,16 +4236,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4289,16 +4265,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
       </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4318,16 +4294,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -4347,16 +4323,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4376,16 +4352,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
       </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -4405,16 +4381,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4434,16 +4410,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4463,16 +4439,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
       </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4492,16 +4468,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
       </c>
-      <c r="F58" t="s">
-        <v>116</v>
-      </c>
       <c r="G58" t="n">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -4521,16 +4497,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
         <v>7</v>
       </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4550,16 +4526,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
       </c>
-      <c r="F60" t="s">
-        <v>118</v>
-      </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4579,16 +4555,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -4608,16 +4584,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -4637,16 +4613,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -4666,16 +4642,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -4695,16 +4671,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -4724,16 +4700,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
       <c r="G66" t="n">
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -4753,16 +4729,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
       <c r="G67" t="n">
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -4782,16 +4758,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -4811,16 +4787,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
       </c>
-      <c r="F69" t="s">
-        <v>136</v>
-      </c>
       <c r="G69" t="n">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -4840,16 +4816,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" t="s">
-        <v>138</v>
-      </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -4869,16 +4845,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
       </c>
-      <c r="F71" t="s">
-        <v>140</v>
-      </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4898,16 +4874,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -4927,16 +4903,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
-        <v>8</v>
-      </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -4956,16 +4932,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
       </c>
-      <c r="F74" t="s">
-        <v>144</v>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -4985,16 +4961,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
       </c>
-      <c r="F75" t="s">
-        <v>146</v>
-      </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5014,16 +4990,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
       </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -5043,16 +5019,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
       </c>
-      <c r="F77" t="s">
-        <v>150</v>
-      </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -5072,16 +5048,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -5101,16 +5077,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -5130,16 +5106,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
       </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -5159,16 +5135,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
       </c>
-      <c r="F81" t="s">
-        <v>158</v>
-      </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -5188,16 +5164,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -5217,16 +5193,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
       </c>
-      <c r="F83" t="s">
-        <v>162</v>
-      </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -5246,16 +5222,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
       </c>
-      <c r="F84" t="s">
-        <v>164</v>
-      </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -5275,16 +5251,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
       </c>
-      <c r="F85" t="s">
-        <v>166</v>
-      </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -5304,16 +5280,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
       </c>
-      <c r="F86" t="s">
-        <v>168</v>
-      </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -5333,16 +5309,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
       </c>
-      <c r="F87" t="s">
-        <v>170</v>
-      </c>
       <c r="G87" t="n">
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -5362,16 +5338,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
       </c>
-      <c r="F88" t="s">
-        <v>166</v>
-      </c>
       <c r="G88" t="n">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -5391,16 +5367,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
       </c>
-      <c r="F89" t="s">
-        <v>172</v>
-      </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -5420,16 +5396,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" t="s">
         <v>73</v>
-      </c>
-      <c r="F90" t="s">
-        <v>74</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -5449,16 +5425,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
       </c>
-      <c r="F91" t="s">
-        <v>174</v>
-      </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -5478,16 +5454,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
       </c>
-      <c r="F92" t="s">
-        <v>176</v>
-      </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -5507,16 +5483,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
       </c>
-      <c r="F93" t="s">
-        <v>178</v>
-      </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -5536,16 +5512,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
       </c>
-      <c r="F94" t="s">
-        <v>180</v>
-      </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -5565,16 +5541,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -5594,16 +5570,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
       </c>
-      <c r="F96" t="s">
-        <v>184</v>
-      </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -5623,16 +5599,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -5652,16 +5628,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -5681,16 +5657,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
       </c>
-      <c r="F99" t="s">
-        <v>190</v>
-      </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -5710,16 +5686,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -5739,16 +5715,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
       </c>
-      <c r="F101" t="s">
-        <v>194</v>
-      </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -5768,16 +5744,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -5797,16 +5773,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
       </c>
-      <c r="F103" t="s">
-        <v>198</v>
-      </c>
       <c r="G103" t="n">
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -5826,16 +5802,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -5855,16 +5831,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
       </c>
-      <c r="F105" t="s">
-        <v>202</v>
-      </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -5884,16 +5860,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -5913,16 +5889,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -5942,16 +5918,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
       </c>
-      <c r="F108" t="s">
-        <v>208</v>
-      </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -5971,16 +5947,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -6000,16 +5976,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
       </c>
-      <c r="F110" t="s">
-        <v>212</v>
-      </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -6029,16 +6005,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
       </c>
-      <c r="F111" t="s">
-        <v>214</v>
-      </c>
       <c r="G111" t="n">
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -6058,16 +6034,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
       </c>
-      <c r="F112" t="s">
-        <v>216</v>
-      </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -6087,16 +6063,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -6116,16 +6092,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
       </c>
-      <c r="F114" t="s">
-        <v>220</v>
-      </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -6145,16 +6121,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
       </c>
-      <c r="F115" t="s">
-        <v>222</v>
-      </c>
       <c r="G115" t="n">
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -6174,16 +6150,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -6203,16 +6179,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -6232,16 +6208,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
       </c>
-      <c r="F118" t="s">
-        <v>228</v>
-      </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -6261,16 +6237,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
       </c>
-      <c r="F119" t="s">
-        <v>230</v>
-      </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -6290,16 +6266,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
       </c>
-      <c r="F120" t="s">
-        <v>232</v>
-      </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -6319,16 +6295,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -6348,16 +6324,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122" t="s">
         <v>95</v>
       </c>
-      <c r="F122" t="s">
-        <v>96</v>
-      </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -6377,16 +6353,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -6406,16 +6382,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -6435,16 +6411,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
       </c>
-      <c r="F125" t="s">
-        <v>240</v>
-      </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -6464,16 +6440,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -6493,16 +6469,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
       </c>
-      <c r="F127" t="s">
-        <v>244</v>
-      </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -6522,16 +6498,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
       </c>
-      <c r="F128" t="s">
-        <v>246</v>
-      </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -6551,16 +6527,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
       </c>
-      <c r="F129" t="s">
-        <v>248</v>
-      </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -6580,16 +6556,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
       </c>
-      <c r="F130" t="s">
-        <v>250</v>
-      </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -6609,16 +6585,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
       </c>
-      <c r="F131" t="s">
-        <v>252</v>
-      </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -6638,16 +6614,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
       </c>
-      <c r="F132" t="s">
-        <v>254</v>
-      </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -6667,16 +6643,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -6696,16 +6672,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
       </c>
-      <c r="F134" t="s">
-        <v>258</v>
-      </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -6725,16 +6701,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
       </c>
-      <c r="F135" t="s">
-        <v>260</v>
-      </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -6754,16 +6730,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
       </c>
-      <c r="F136" t="s">
-        <v>262</v>
-      </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -6783,16 +6759,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
       </c>
-      <c r="F137" t="s">
-        <v>264</v>
-      </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -6812,16 +6788,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -6841,16 +6817,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
       </c>
-      <c r="F139" t="s">
-        <v>268</v>
-      </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -6870,16 +6846,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
       </c>
-      <c r="F140" t="s">
-        <v>270</v>
-      </c>
       <c r="G140" t="n">
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -6899,16 +6875,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
       </c>
-      <c r="F141" t="s">
-        <v>272</v>
-      </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -6928,16 +6904,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
       </c>
-      <c r="F142" t="s">
-        <v>274</v>
-      </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -6957,16 +6933,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
       </c>
-      <c r="F143" t="s">
-        <v>276</v>
-      </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -6986,16 +6962,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -7015,16 +6991,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" t="s">
         <v>89</v>
       </c>
-      <c r="F145" t="s">
-        <v>90</v>
-      </c>
       <c r="G145" t="n">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -7044,16 +7020,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146" t="s">
         <v>65</v>
-      </c>
-      <c r="F146" t="s">
-        <v>66</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -7073,16 +7049,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -7102,16 +7078,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -7131,16 +7107,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -7160,16 +7136,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -7189,16 +7165,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -7218,16 +7194,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -7247,16 +7223,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>180</v>
+      </c>
+      <c r="F153" t="s">
         <v>181</v>
       </c>
-      <c r="F153" t="s">
-        <v>182</v>
-      </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -7276,16 +7252,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" t="s">
         <v>61</v>
-      </c>
-      <c r="F154" t="s">
-        <v>62</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -7305,16 +7281,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -7334,16 +7310,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -7363,16 +7339,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -7392,16 +7368,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -7421,16 +7397,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -7450,16 +7426,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -7479,16 +7455,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -7508,16 +7484,16 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -7537,16 +7513,16 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -7566,16 +7542,16 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -7595,16 +7571,16 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -7624,16 +7600,16 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -7653,16 +7629,16 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -7682,16 +7658,16 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -7711,16 +7687,16 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -7740,16 +7716,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -7769,16 +7745,16 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -7798,16 +7774,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>114</v>
+      </c>
+      <c r="F172" t="s">
         <v>115</v>
       </c>
-      <c r="F172" t="s">
-        <v>116</v>
-      </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -7827,16 +7803,16 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -7856,16 +7832,16 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -7885,16 +7861,16 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -7914,16 +7890,16 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -7943,16 +7919,16 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -7972,16 +7948,16 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -8001,16 +7977,16 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -8030,16 +8006,16 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -8059,16 +8035,16 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -8088,16 +8064,16 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -8117,16 +8093,16 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -8146,16 +8122,16 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -8175,16 +8151,16 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -8204,16 +8180,16 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -8233,16 +8209,16 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -8262,16 +8238,16 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -8291,16 +8267,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>206</v>
+      </c>
+      <c r="F189" t="s">
         <v>207</v>
       </c>
-      <c r="F189" t="s">
-        <v>208</v>
-      </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -8320,16 +8296,16 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -8349,16 +8325,16 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -8378,16 +8354,16 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -8407,16 +8383,16 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -8436,16 +8412,16 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -8465,16 +8441,16 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>164</v>
+      </c>
+      <c r="F195" t="s">
         <v>165</v>
       </c>
-      <c r="F195" t="s">
-        <v>166</v>
-      </c>
       <c r="G195" t="n">
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -8494,16 +8470,16 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -8523,16 +8499,16 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -8552,16 +8528,16 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -8581,16 +8557,16 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>186</v>
+      </c>
+      <c r="F199" t="s">
         <v>187</v>
-      </c>
-      <c r="F199" t="s">
-        <v>188</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -8610,16 +8586,16 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -8639,16 +8615,16 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -8668,16 +8644,16 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -8697,16 +8673,16 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>18</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -8726,16 +8702,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -8755,16 +8731,16 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -8784,16 +8760,16 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -8813,16 +8789,16 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -8842,16 +8818,16 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>30</v>
+      </c>
+      <c r="F208" t="s">
         <v>31</v>
       </c>
-      <c r="F208" t="s">
-        <v>32</v>
-      </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -8871,16 +8847,16 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -8900,16 +8876,16 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -8929,16 +8905,16 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -8958,16 +8934,16 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -8987,16 +8963,16 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -9016,16 +8992,16 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -9045,16 +9021,16 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -9074,16 +9050,16 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -9103,16 +9079,16 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -9132,16 +9108,16 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -9161,16 +9137,16 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -9190,16 +9166,16 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -9219,16 +9195,16 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -9248,16 +9224,16 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -9277,16 +9253,16 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -9306,16 +9282,16 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -9335,16 +9311,16 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -9364,16 +9340,16 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -9393,16 +9369,16 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -9422,16 +9398,16 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -9451,16 +9427,16 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -9480,16 +9456,16 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -9509,16 +9485,16 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -9538,16 +9514,16 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -9567,16 +9543,16 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
       </c>
       <c r="H233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -9596,16 +9572,16 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -9625,16 +9601,16 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -9654,16 +9630,16 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -9683,16 +9659,16 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -9712,16 +9688,16 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -9741,16 +9717,16 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -9770,16 +9746,16 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -9799,16 +9775,16 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -9828,16 +9804,16 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -9857,16 +9833,16 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -9886,16 +9862,16 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -9915,16 +9891,16 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -9944,16 +9920,16 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -9973,16 +9949,16 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -10002,16 +9978,16 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -10031,16 +10007,16 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -10060,16 +10036,16 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -10089,16 +10065,16 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -10118,16 +10094,16 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -10147,16 +10123,16 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -10176,16 +10152,16 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -10205,16 +10181,16 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
@@ -10234,16 +10210,16 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -10263,16 +10239,16 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
       </c>
       <c r="H257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -10292,16 +10268,16 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -10321,16 +10297,16 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -10350,16 +10326,16 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -10379,16 +10355,16 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -10408,16 +10384,16 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -10437,16 +10413,16 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -10466,16 +10442,16 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -10495,16 +10471,16 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
@@ -10524,16 +10500,16 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -10553,16 +10529,16 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -10582,16 +10558,16 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -10611,16 +10587,16 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -10640,16 +10616,16 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -10669,16 +10645,16 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -10698,16 +10674,16 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F272" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I272" t="n">
         <v>3</v>
@@ -10727,16 +10703,16 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F273" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -10756,16 +10732,16 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I274" t="n">
         <v>3</v>
@@ -10785,16 +10761,16 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F275" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I275" t="n">
         <v>3</v>
@@ -10814,16 +10790,16 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -10843,16 +10819,16 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
       </c>
       <c r="H277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I277" t="n">
         <v>3</v>
@@ -10872,16 +10848,16 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -10901,16 +10877,16 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -10930,16 +10906,16 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -10959,16 +10935,16 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -10988,16 +10964,16 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -11017,16 +10993,16 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -11046,16 +11022,16 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -11075,16 +11051,16 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I285" t="n">
         <v>3</v>
@@ -11104,16 +11080,16 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -11133,16 +11109,16 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -11162,16 +11138,16 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -11191,16 +11167,16 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -11220,16 +11196,16 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -11249,16 +11225,16 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -11278,16 +11254,16 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
       </c>
       <c r="H292" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -11307,16 +11283,16 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I293" t="n">
         <v>3</v>
@@ -11336,16 +11312,16 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -11365,16 +11341,16 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I295" t="n">
         <v>3</v>
@@ -11394,16 +11370,16 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -11423,16 +11399,16 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -11452,16 +11428,16 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -11481,16 +11457,16 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -11510,16 +11486,16 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -11539,16 +11515,16 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -11568,16 +11544,16 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -11597,16 +11573,16 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -11626,16 +11602,16 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I304" t="n">
         <v>3</v>
@@ -11655,16 +11631,16 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -11684,16 +11660,16 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -11713,16 +11689,16 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -11742,16 +11718,16 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -11771,16 +11747,16 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
       </c>
       <c r="H309" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -11800,16 +11776,16 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
       </c>
       <c r="H310" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -11829,16 +11805,16 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -11858,16 +11834,16 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -11887,16 +11863,16 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -11916,16 +11892,16 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
       </c>
       <c r="H314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -11945,16 +11921,16 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -11974,16 +11950,16 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -12003,16 +11979,16 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I317" t="n">
         <v>3</v>
@@ -12032,16 +12008,16 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -12061,16 +12037,16 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -12090,16 +12066,16 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -12119,16 +12095,16 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -12148,16 +12124,16 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I322" t="n">
         <v>3</v>
@@ -12177,16 +12153,16 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
       </c>
       <c r="H323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -12206,16 +12182,16 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -12235,16 +12211,16 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -12264,16 +12240,16 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -12293,16 +12269,16 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -12322,16 +12298,16 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -12351,16 +12327,16 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -12380,16 +12356,16 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -12409,16 +12385,16 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I331" t="n">
         <v>3</v>
@@ -12438,16 +12414,16 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I332" t="n">
         <v>3</v>
@@ -12467,16 +12443,16 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -12496,16 +12472,16 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -12525,16 +12501,16 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -12554,16 +12530,16 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I336" t="n">
         <v>3</v>
@@ -12583,16 +12559,16 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
       </c>
       <c r="H337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -12612,16 +12588,16 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -12641,16 +12617,16 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I339" t="n">
         <v>3</v>
@@ -12670,16 +12646,16 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -12699,16 +12675,16 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I341" t="n">
         <v>3</v>
@@ -12728,16 +12704,16 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -12757,16 +12733,16 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
       </c>
       <c r="H343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -12786,16 +12762,16 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -12815,16 +12791,16 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -12844,16 +12820,16 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I346" t="n">
         <v>3</v>
@@ -12873,16 +12849,16 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I347" t="n">
         <v>3</v>
@@ -12902,16 +12878,16 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -12931,16 +12907,16 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -12960,16 +12936,16 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -12989,16 +12965,16 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -13018,16 +12994,16 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -13047,16 +13023,16 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -13076,16 +13052,16 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -13105,16 +13081,16 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I355" t="n">
         <v>3</v>
@@ -13134,16 +13110,16 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -13163,16 +13139,16 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -13192,16 +13168,16 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -13221,16 +13197,16 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -13250,16 +13226,16 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -13279,16 +13255,16 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -13308,16 +13284,16 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -13337,16 +13313,16 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -13366,16 +13342,16 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
       </c>
       <c r="H364" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -13395,16 +13371,16 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -13424,16 +13400,16 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G366" t="n">
         <v>4</v>
       </c>
       <c r="H366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -13453,16 +13429,16 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -13482,16 +13458,16 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -13511,16 +13487,16 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -13540,16 +13516,16 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
       </c>
       <c r="H370" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -13569,16 +13545,16 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -13598,16 +13574,16 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -13627,16 +13603,16 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -13656,16 +13632,16 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -13685,16 +13661,16 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I375" t="n">
         <v>3</v>
@@ -13714,16 +13690,16 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -13743,16 +13719,16 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>278</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
       </c>
       <c r="H377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -13772,16 +13748,16 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
       </c>
       <c r="H378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -13801,16 +13777,16 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I379" t="n">
         <v>3</v>
@@ -13830,16 +13806,16 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
       </c>
       <c r="H380" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -13859,16 +13835,16 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F381" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -13888,16 +13864,16 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F382" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -13917,16 +13893,16 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F383" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I383" t="n">
         <v>3</v>
@@ -13946,16 +13922,16 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F384" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I384" t="n">
         <v>3</v>
@@ -13975,16 +13951,16 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F385" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -14004,16 +13980,16 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F386" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -14033,16 +14009,16 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F387" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
       </c>
       <c r="H387" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -14062,16 +14038,16 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F388" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -14091,16 +14067,16 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F389" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -14120,16 +14096,16 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F390" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -14149,16 +14125,16 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F391" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -14178,16 +14154,16 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F392" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
       </c>
       <c r="H392" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -14207,16 +14183,16 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F393" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -14236,16 +14212,16 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F394" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I394" t="n">
         <v>3</v>
@@ -14265,16 +14241,16 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F395" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -14294,16 +14270,16 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F396" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I396" t="n">
         <v>3</v>
@@ -14323,16 +14299,16 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I397" t="n">
         <v>3</v>
@@ -14352,16 +14328,16 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F398" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -14381,16 +14357,16 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F399" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -14410,16 +14386,16 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -14439,16 +14415,16 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -14468,16 +14444,16 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F402" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -14497,16 +14473,16 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -14526,16 +14502,16 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F404" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -14555,16 +14531,16 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F405" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
       </c>
       <c r="H405" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I405" t="n">
         <v>3</v>
@@ -14584,16 +14560,16 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F406" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -14613,16 +14589,16 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F407" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -14642,16 +14618,16 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F408" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -14671,16 +14647,16 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F409" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -14700,16 +14676,16 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I410" t="n">
         <v>3</v>
@@ -14729,16 +14705,16 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
       </c>
       <c r="H411" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I411" t="n">
         <v>3</v>
@@ -14758,16 +14734,16 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -14787,16 +14763,16 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -14816,16 +14792,16 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I414" t="n">
         <v>3</v>
@@ -14845,16 +14821,16 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -14874,16 +14850,16 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
       </c>
       <c r="H416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -14903,16 +14879,16 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
       </c>
       <c r="H417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -14932,16 +14908,16 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I418" t="n">
         <v>3</v>
@@ -14961,16 +14937,16 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F419" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -14990,16 +14966,16 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F420" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I420" t="n">
         <v>3</v>
@@ -15019,16 +14995,16 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F421" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I421" t="n">
         <v>3</v>
@@ -15048,16 +15024,16 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F422" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -15077,16 +15053,16 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F423" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I423" t="n">
         <v>3</v>

--- a/xlsx/农业_intext.xlsx
+++ b/xlsx/农业_intext.xlsx
@@ -29,7 +29,7 @@
     <t>農業</t>
   </si>
   <si>
-    <t>政策_政策_美國_农业</t>
+    <t>体育运动_体育运动_文化_农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%AD%B8</t>
